--- a/GEP/Data/Countries_nodes.xlsx
+++ b/GEP/Data/Countries_nodes.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\defor\Desktop\Thesis\GEP\GEP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BE39F8-1254-4D16-9B91-2F7CE84C5B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B0E8AE-0B1E-4130-89FA-4733D149E816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$A$37</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="75">
   <si>
     <t>Countries</t>
   </si>
@@ -102,9 +106,6 @@
     <t>Hungary</t>
   </si>
   <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
     <t>Switzerland</t>
   </si>
   <si>
@@ -130,6 +131,129 @@
   </si>
   <si>
     <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>The former Yugoslav Republic of Macedonia</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL </t>
+  </si>
+  <si>
+    <t>Ukraine</t>
   </si>
 </sst>
 </file>
@@ -470,13 +594,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A11" zoomScale="83" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="46.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -485,172 +613,720 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:B37" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B37">
+      <sortCondition ref="B2:B37"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B37">
+    <sortCondition ref="A2:A37"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4472208D-DCC4-4ADE-AE6D-6F613C6BB630}">
+  <dimension ref="A1:AL37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
